--- a/data/aportes.xlsx
+++ b/data/aportes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8feae05406065f8f/Desktop/proyectos_r/1-personales/goat/fondo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018001\OneDrive - Banco Central de la Republica Dominicana\Desktop\Proyectos\goat_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="13_ncr:1_{A5B72EDE-4AFF-4FA1-84AB-8EF4FBC89CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D4570B-4F69-D54E-B47E-D33682ACD011}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:1_{A5B72EDE-4AFF-4FA1-84AB-8EF4FBC89CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA69E0C8-2701-4970-868F-CEAF21958952}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="24720" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="495" windowWidth="24720" windowHeight="17505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="4" r:id="rId1"/>
@@ -31,23 +31,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="82">
   <si>
     <t>Row Labels</t>
   </si>
@@ -2936,16 +2925,16 @@
       <selection activeCell="P50" sqref="D50:P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3042,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3081,7 +3070,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3130,7 +3119,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3147,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3173,7 +3162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3203,7 +3192,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3248,7 +3237,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3275,7 +3264,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3289,7 +3278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3306,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3348,7 +3337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +3389,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3436,7 +3425,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3471,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3507,7 +3496,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3521,7 +3510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3547,7 +3536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3569,7 +3558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3600,7 +3589,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -3614,7 +3603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -3668,7 +3657,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -3734,7 +3723,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +3765,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3786,7 +3775,7 @@
       <c r="G29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3801,7 +3790,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3816,7 +3805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3831,7 +3820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +3841,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3867,7 +3856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3891,7 +3880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3906,7 +3895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3930,7 +3919,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
@@ -3951,7 +3940,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3969,7 +3958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3984,7 +3973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
@@ -4005,7 +3994,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
@@ -4023,7 +4012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
@@ -4038,7 +4027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
@@ -4056,7 +4045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
@@ -4071,7 +4060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
@@ -4086,7 +4075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>43</v>
       </c>
@@ -4152,7 +4141,7 @@
         <v>12055</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>44</v>
       </c>
@@ -4201,7 +4190,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>45</v>
       </c>
@@ -4268,24 +4257,24 @@
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -4307,7 +4296,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -4375,7 +4364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4413,7 +4402,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4439,7 +4428,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4486,7 +4475,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4513,7 +4502,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +4514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4552,7 +4541,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4567,7 +4556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4594,7 +4583,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4621,7 +4610,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +4623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -4661,7 +4650,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4691,7 +4680,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -4742,7 +4731,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4778,7 +4767,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -4823,7 +4812,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -4848,7 +4837,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -4861,7 +4850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -4886,7 +4875,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4907,7 +4896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -4937,7 +4926,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -4950,7 +4939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -5004,7 +4993,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -5032,7 +5021,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -5067,7 +5056,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -5110,7 +5099,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -5118,7 +5107,7 @@
       <c r="H30"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -5131,7 +5120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -5144,7 +5133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -5157,7 +5146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -5176,7 +5165,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -5189,7 +5178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -5211,7 +5200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -5224,7 +5213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -5246,7 +5235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -5265,7 +5254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -5281,7 +5270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -5294,7 +5283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -5313,7 +5302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -5329,7 +5318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -5342,7 +5331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -5358,7 +5347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -5371,7 +5360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -5384,7 +5373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -5449,7 +5438,7 @@
         <v>12055</v>
       </c>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5460,18 +5449,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152:C156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -5482,7 +5471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44710</v>
       </c>
@@ -5493,7 +5482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44724</v>
       </c>
@@ -5504,7 +5493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44724</v>
       </c>
@@ -5515,7 +5504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44724</v>
       </c>
@@ -5526,7 +5515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44724</v>
       </c>
@@ -5537,7 +5526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44724</v>
       </c>
@@ -5548,7 +5537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44724</v>
       </c>
@@ -5559,7 +5548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44724</v>
       </c>
@@ -5570,7 +5559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44724</v>
       </c>
@@ -5581,7 +5570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44724</v>
       </c>
@@ -5592,7 +5581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44724</v>
       </c>
@@ -5603,7 +5592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44724</v>
       </c>
@@ -5614,7 +5603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44724</v>
       </c>
@@ -5625,7 +5614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44724</v>
       </c>
@@ -5636,7 +5625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44724</v>
       </c>
@@ -5647,7 +5636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44724</v>
       </c>
@@ -5658,7 +5647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44731</v>
       </c>
@@ -5669,7 +5658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44731</v>
       </c>
@@ -5680,7 +5669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44731</v>
       </c>
@@ -5691,7 +5680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44731</v>
       </c>
@@ -5702,7 +5691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44731</v>
       </c>
@@ -5713,7 +5702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44731</v>
       </c>
@@ -5724,7 +5713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44731</v>
       </c>
@@ -5735,7 +5724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44731</v>
       </c>
@@ -5746,7 +5735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44731</v>
       </c>
@@ -5757,7 +5746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44731</v>
       </c>
@@ -5768,7 +5757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44731</v>
       </c>
@@ -5779,7 +5768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44731</v>
       </c>
@@ -5790,7 +5779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44731</v>
       </c>
@@ -5801,7 +5790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44738</v>
       </c>
@@ -5812,7 +5801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44738</v>
       </c>
@@ -5823,7 +5812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44738</v>
       </c>
@@ -5834,7 +5823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44738</v>
       </c>
@@ -5845,7 +5834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44738</v>
       </c>
@@ -5856,7 +5845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44738</v>
       </c>
@@ -5867,7 +5856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44738</v>
       </c>
@@ -5878,7 +5867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44738</v>
       </c>
@@ -5889,7 +5878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44738</v>
       </c>
@@ -5900,7 +5889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44738</v>
       </c>
@@ -5911,7 +5900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44738</v>
       </c>
@@ -5922,7 +5911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44738</v>
       </c>
@@ -5933,7 +5922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44738</v>
       </c>
@@ -5944,7 +5933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44738</v>
       </c>
@@ -5955,7 +5944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44738</v>
       </c>
@@ -5966,7 +5955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44752</v>
       </c>
@@ -5977,7 +5966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44752</v>
       </c>
@@ -5988,7 +5977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44752</v>
       </c>
@@ -5999,7 +5988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44752</v>
       </c>
@@ -6010,7 +5999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44752</v>
       </c>
@@ -6021,7 +6010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44752</v>
       </c>
@@ -6032,7 +6021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44752</v>
       </c>
@@ -6043,7 +6032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44752</v>
       </c>
@@ -6054,7 +6043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44752</v>
       </c>
@@ -6065,7 +6054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44752</v>
       </c>
@@ -6076,7 +6065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44752</v>
       </c>
@@ -6087,7 +6076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44752</v>
       </c>
@@ -6098,7 +6087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44752</v>
       </c>
@@ -6109,7 +6098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44766</v>
       </c>
@@ -6120,7 +6109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44766</v>
       </c>
@@ -6131,7 +6120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44766</v>
       </c>
@@ -6142,7 +6131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44766</v>
       </c>
@@ -6153,7 +6142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44766</v>
       </c>
@@ -6164,7 +6153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44766</v>
       </c>
@@ -6175,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44766</v>
       </c>
@@ -6186,7 +6175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44766</v>
       </c>
@@ -6197,7 +6186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44766</v>
       </c>
@@ -6208,7 +6197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44787</v>
       </c>
@@ -6219,7 +6208,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44795</v>
       </c>
@@ -6230,7 +6219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44795</v>
       </c>
@@ -6241,7 +6230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44795</v>
       </c>
@@ -6252,7 +6241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44795</v>
       </c>
@@ -6263,7 +6252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44795</v>
       </c>
@@ -6274,7 +6263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44795</v>
       </c>
@@ -6285,7 +6274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44815</v>
       </c>
@@ -6296,7 +6285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44815</v>
       </c>
@@ -6307,7 +6296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44815</v>
       </c>
@@ -6318,7 +6307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44815</v>
       </c>
@@ -6329,7 +6318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44815</v>
       </c>
@@ -6340,7 +6329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44815</v>
       </c>
@@ -6351,7 +6340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44815</v>
       </c>
@@ -6362,7 +6351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44815</v>
       </c>
@@ -6373,7 +6362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44815</v>
       </c>
@@ -6384,7 +6373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44815</v>
       </c>
@@ -6395,7 +6384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44843</v>
       </c>
@@ -6406,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44843</v>
       </c>
@@ -6417,7 +6406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44843</v>
       </c>
@@ -6428,7 +6417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44843</v>
       </c>
@@ -6439,7 +6428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44843</v>
       </c>
@@ -6450,7 +6439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44843</v>
       </c>
@@ -6461,7 +6450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44843</v>
       </c>
@@ -6472,7 +6461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44843</v>
       </c>
@@ -6483,7 +6472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44843</v>
       </c>
@@ -6494,7 +6483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44843</v>
       </c>
@@ -6505,7 +6494,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44843</v>
       </c>
@@ -6516,7 +6505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44843</v>
       </c>
@@ -6527,7 +6516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44843</v>
       </c>
@@ -6538,7 +6527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44843</v>
       </c>
@@ -6549,7 +6538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44843</v>
       </c>
@@ -6560,7 +6549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44843</v>
       </c>
@@ -6571,7 +6560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44843</v>
       </c>
@@ -6582,7 +6571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44850</v>
       </c>
@@ -6593,7 +6582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44850</v>
       </c>
@@ -6604,7 +6593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44850</v>
       </c>
@@ -6615,7 +6604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44850</v>
       </c>
@@ -6626,7 +6615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44850</v>
       </c>
@@ -6637,7 +6626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44850</v>
       </c>
@@ -6648,7 +6637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44850</v>
       </c>
@@ -6659,7 +6648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44857</v>
       </c>
@@ -6670,7 +6659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44857</v>
       </c>
@@ -6681,7 +6670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44857</v>
       </c>
@@ -6692,7 +6681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44857</v>
       </c>
@@ -6703,7 +6692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44857</v>
       </c>
@@ -6714,7 +6703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44857</v>
       </c>
@@ -6725,7 +6714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44857</v>
       </c>
@@ -6736,7 +6725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44857</v>
       </c>
@@ -6747,7 +6736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44857</v>
       </c>
@@ -6758,7 +6747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44857</v>
       </c>
@@ -6769,7 +6758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44857</v>
       </c>
@@ -6780,7 +6769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44864</v>
       </c>
@@ -6791,7 +6780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44864</v>
       </c>
@@ -6802,7 +6791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44864</v>
       </c>
@@ -6813,7 +6802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44864</v>
       </c>
@@ -6824,7 +6813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44864</v>
       </c>
@@ -6835,7 +6824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44864</v>
       </c>
@@ -6846,7 +6835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44864</v>
       </c>
@@ -6857,7 +6846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44871</v>
       </c>
@@ -6868,7 +6857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44871</v>
       </c>
@@ -6879,7 +6868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44871</v>
       </c>
@@ -6890,7 +6879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44871</v>
       </c>
@@ -6901,7 +6890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44871</v>
       </c>
@@ -6912,7 +6901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44871</v>
       </c>
@@ -6923,7 +6912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44871</v>
       </c>
@@ -6934,7 +6923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44871</v>
       </c>
@@ -6945,7 +6934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44871</v>
       </c>
@@ -6956,7 +6945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44871</v>
       </c>
@@ -6967,7 +6956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44871</v>
       </c>
@@ -6978,7 +6967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44871</v>
       </c>
@@ -6989,7 +6978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44871</v>
       </c>
@@ -7000,7 +6989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44871</v>
       </c>
@@ -7011,7 +7000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44878</v>
       </c>
@@ -7022,7 +7011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44878</v>
       </c>
@@ -7033,7 +7022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44878</v>
       </c>
@@ -7044,7 +7033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44878</v>
       </c>
@@ -7055,7 +7044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44878</v>
       </c>
@@ -7066,7 +7055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44878</v>
       </c>
@@ -7077,7 +7066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44878</v>
       </c>
@@ -7088,7 +7077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44878</v>
       </c>
@@ -7099,7 +7088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44878</v>
       </c>
@@ -7110,7 +7099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44878</v>
       </c>
@@ -7121,7 +7110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44878</v>
       </c>
@@ -7132,7 +7121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44892</v>
       </c>
@@ -7143,7 +7132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44892</v>
       </c>
@@ -7154,7 +7143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44892</v>
       </c>
@@ -7165,7 +7154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44892</v>
       </c>
@@ -7176,7 +7165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44892</v>
       </c>
@@ -7187,7 +7176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44899</v>
       </c>
@@ -7198,7 +7187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44899</v>
       </c>
@@ -7209,7 +7198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44899</v>
       </c>
@@ -7220,7 +7209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44899</v>
       </c>
@@ -7231,7 +7220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44899</v>
       </c>
@@ -7242,7 +7231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44899</v>
       </c>
@@ -7253,7 +7242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44899</v>
       </c>
@@ -7264,7 +7253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44899</v>
       </c>
@@ -7275,7 +7264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44899</v>
       </c>
@@ -7286,7 +7275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44899</v>
       </c>
@@ -7297,7 +7286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44899</v>
       </c>
@@ -7308,7 +7297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44899</v>
       </c>
@@ -7319,7 +7308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44899</v>
       </c>
@@ -7330,7 +7319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44906</v>
       </c>
@@ -7341,7 +7330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44906</v>
       </c>
@@ -7352,7 +7341,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44906</v>
       </c>
@@ -7363,7 +7352,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44906</v>
       </c>
@@ -7374,7 +7363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>44906</v>
       </c>
@@ -7385,7 +7374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>44906</v>
       </c>
@@ -7396,7 +7385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>44906</v>
       </c>
@@ -7407,7 +7396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>44906</v>
       </c>
@@ -7418,7 +7407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>44906</v>
       </c>
@@ -7429,7 +7418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>44906</v>
       </c>
@@ -7440,7 +7429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>44906</v>
       </c>
@@ -7451,7 +7440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>44906</v>
       </c>
@@ -7462,7 +7451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>44906</v>
       </c>
@@ -7473,7 +7462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>44906</v>
       </c>
@@ -7484,7 +7473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>44906</v>
       </c>
@@ -7495,7 +7484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>44906</v>
       </c>
@@ -7506,7 +7495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>44906</v>
       </c>
@@ -7517,7 +7506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>44913</v>
       </c>
@@ -7528,7 +7517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>44913</v>
       </c>
@@ -7539,7 +7528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>44913</v>
       </c>
@@ -7550,7 +7539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>44913</v>
       </c>
@@ -7561,7 +7550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>44913</v>
       </c>
@@ -7572,7 +7561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>44913</v>
       </c>
@@ -7583,7 +7572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>44913</v>
       </c>
@@ -7594,7 +7583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>44913</v>
       </c>
@@ -7605,7 +7594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>44913</v>
       </c>
@@ -7616,7 +7605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>44913</v>
       </c>
@@ -7627,7 +7616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>44913</v>
       </c>
@@ -7638,7 +7627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>44913</v>
       </c>
@@ -7649,7 +7638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>44913</v>
       </c>
@@ -7660,7 +7649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>44913</v>
       </c>
@@ -7671,7 +7660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>44913</v>
       </c>
@@ -7682,7 +7671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>44913</v>
       </c>
@@ -7695,7 +7684,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C202">
+    <sortState ref="A2:C202">
       <sortCondition ref="A1:A202"/>
     </sortState>
   </autoFilter>
@@ -7706,19 +7695,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE6B05F-97B9-4791-8A51-7994BA510F1D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -7729,7 +7718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44710</v>
       </c>
@@ -7740,7 +7729,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44724</v>
       </c>
@@ -7751,7 +7740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44731</v>
       </c>
@@ -7762,7 +7751,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44738</v>
       </c>
@@ -7773,7 +7762,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44752</v>
       </c>
@@ -7784,7 +7773,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44766</v>
       </c>
@@ -7795,7 +7784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44795</v>
       </c>
@@ -7806,7 +7795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44815</v>
       </c>
@@ -7817,7 +7806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44843</v>
       </c>
@@ -7828,7 +7817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44857</v>
       </c>
@@ -7839,7 +7828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44857</v>
       </c>
@@ -7850,36 +7839,69 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44892</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>44906</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>950</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>44913</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>44911</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>1500</v>
       </c>
     </row>
@@ -7897,12 +7919,12 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -7919,7 +7941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44906</v>
       </c>
@@ -7933,7 +7955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44913</v>
       </c>
@@ -7960,9 +7982,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aportes.xlsx
+++ b/data/aportes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018001\OneDrive - Banco Central de la Republica Dominicana\Desktop\Proyectos\goat_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:1_{A5B72EDE-4AFF-4FA1-84AB-8EF4FBC89CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA69E0C8-2701-4970-868F-CEAF21958952}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="13_ncr:1_{A5B72EDE-4AFF-4FA1-84AB-8EF4FBC89CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF24B0D8-61F9-4DE0-B16F-ACD857ED4109}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="495" windowWidth="24720" windowHeight="17505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="495" windowWidth="24720" windowHeight="17505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="83">
   <si>
     <t>Row Labels</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Aporte al mono (para medallas)</t>
+  </si>
+  <si>
+    <t>Sin detalle</t>
   </si>
 </sst>
 </file>
@@ -5449,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152:C156"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,7 +5479,7 @@
         <v>44710</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3">
         <v>80</v>
@@ -6201,8 +6204,8 @@
       <c r="A68" s="2">
         <v>44787</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>27</v>
+      <c r="B68" t="s">
+        <v>82</v>
       </c>
       <c r="C68" s="3">
         <v>150</v>
@@ -7115,7 +7118,7 @@
         <v>44878</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C151" s="3">
         <v>25</v>
@@ -7214,7 +7217,7 @@
         <v>44899</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C160" s="3">
         <v>100</v>
@@ -7500,7 +7503,7 @@
         <v>44906</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C186" s="3">
         <v>50</v>
@@ -7697,7 +7700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE6B05F-97B9-4791-8A51-7994BA510F1D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/data/aportes.xlsx
+++ b/data/aportes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018001\OneDrive - Banco Central de la Republica Dominicana\Desktop\Proyectos\goat_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="501" documentId="13_ncr:1_{A5B72EDE-4AFF-4FA1-84AB-8EF4FBC89CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF24B0D8-61F9-4DE0-B16F-ACD857ED4109}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="13_ncr:1_{A5B72EDE-4AFF-4FA1-84AB-8EF4FBC89CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BFC868-C1A4-4265-A7EA-76F456466191}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="495" windowWidth="24720" windowHeight="17505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5452,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7492,7 +7492,7 @@
         <v>44906</v>
       </c>
       <c r="B185" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C185" s="3">
         <v>100</v>
